--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/16 Prueba de Cálculo de Prestaciones Laborales.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/8 AUDITORIA CUENTAS POR PAGAR/16 Prueba de Cálculo de Prestaciones Laborales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\8 AUDITORIA CUENTAS POR PAGAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B5DBD-1647-4522-B512-68455BC7442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -45,9 +40,6 @@
     <t xml:space="preserve">    Auditoria Financiera</t>
   </si>
   <si>
-    <t xml:space="preserve">        Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
     <t>Empleado</t>
   </si>
   <si>
@@ -81,9 +73,6 @@
     <t>Vacaciones   100%</t>
   </si>
   <si>
-    <t xml:space="preserve">           Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Prueba de Cálculo de Prestaciones Laborales    </t>
   </si>
   <si>
@@ -115,14 +104,20 @@
   </si>
   <si>
     <t>H-15</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0_);[Red]\(&quot;Q&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0_);[Red]\(&quot;Q&quot;#,##0\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -371,9 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,17 +379,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -524,7 +527,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="25 Conector recto"/>
+        <xdr:cNvPr id="3" name="25 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -572,7 +581,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="26 Conector recto"/>
+        <xdr:cNvPr id="4" name="26 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -620,7 +635,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="29 Conector recto"/>
+        <xdr:cNvPr id="5" name="29 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -668,7 +689,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="30 Conector recto"/>
+        <xdr:cNvPr id="6" name="30 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
         </xdr:cNvCxnSpPr>
@@ -716,7 +743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="31 Triángulo isósceles"/>
+        <xdr:cNvPr id="7" name="31 Triángulo isósceles">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -761,7 +794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -822,7 +861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1167,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1182,11 +1227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1239,8 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -1203,9 +1249,9 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="J3" s="31" t="s">
-        <v>27</v>
+      <c r="B3" s="15"/>
+      <c r="J3" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1213,266 +1259,276 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="I8" s="6" t="s">
+      <c r="D8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="I8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
+      <c r="D10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="16" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10">
+        <v>43174</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12">
-        <v>43174</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="10">
+        <v>43626</v>
+      </c>
+      <c r="D16" s="11">
+        <v>6500</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12">
-        <v>43626</v>
-      </c>
-      <c r="D16" s="13">
-        <v>6500</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>44140</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>7200</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="E44" s="25"/>
+      <c r="F44" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="26" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
